--- a/开发文档_分工表.xlsx
+++ b/开发文档_分工表.xlsx
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
